--- a/Financials/Yearly/TCLRY_YR_FIN.xlsx
+++ b/Financials/Yearly/TCLRY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0122B0D7-BDF9-4180-A929-C489F28D3CE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCLRY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>TCLRY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4966400</v>
+        <v>4747100</v>
       </c>
       <c r="E8" s="3">
-        <v>5432400</v>
+        <v>5192600</v>
       </c>
       <c r="F8" s="3">
-        <v>4286800</v>
+        <v>4097500</v>
       </c>
       <c r="G8" s="3">
-        <v>3911100</v>
+        <v>3738500</v>
       </c>
       <c r="H8" s="3">
-        <v>4049600</v>
+        <v>3870900</v>
       </c>
       <c r="I8" s="3">
-        <v>4202200</v>
+        <v>4016700</v>
       </c>
       <c r="J8" s="3">
-        <v>4049600</v>
+        <v>3870900</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4285600</v>
+        <v>4096400</v>
       </c>
       <c r="E9" s="3">
-        <v>4618900</v>
+        <v>4415000</v>
       </c>
       <c r="F9" s="3">
-        <v>3313700</v>
+        <v>3167400</v>
       </c>
       <c r="G9" s="3">
-        <v>2949800</v>
+        <v>2819600</v>
       </c>
       <c r="H9" s="3">
-        <v>3083600</v>
+        <v>2947500</v>
       </c>
       <c r="I9" s="3">
-        <v>3228000</v>
+        <v>3085500</v>
       </c>
       <c r="J9" s="3">
-        <v>3185700</v>
+        <v>3045100</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>680800</v>
+        <v>650800</v>
       </c>
       <c r="E10" s="3">
-        <v>813500</v>
+        <v>777500</v>
       </c>
       <c r="F10" s="3">
-        <v>973100</v>
+        <v>930100</v>
       </c>
       <c r="G10" s="3">
-        <v>961400</v>
+        <v>918900</v>
       </c>
       <c r="H10" s="3">
-        <v>966000</v>
+        <v>923400</v>
       </c>
       <c r="I10" s="3">
-        <v>974300</v>
+        <v>931300</v>
       </c>
       <c r="J10" s="3">
-        <v>863900</v>
+        <v>825800</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,34 +835,34 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>201900</v>
+        <v>193000</v>
       </c>
       <c r="E12" s="3">
-        <v>207800</v>
+        <v>198600</v>
       </c>
       <c r="F12" s="3">
-        <v>151400</v>
+        <v>144700</v>
       </c>
       <c r="G12" s="3">
-        <v>119700</v>
+        <v>114400</v>
       </c>
       <c r="H12" s="3">
-        <v>126800</v>
+        <v>121200</v>
       </c>
       <c r="I12" s="3">
-        <v>130300</v>
+        <v>124500</v>
       </c>
       <c r="J12" s="3">
-        <v>129100</v>
+        <v>123400</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,34 +889,34 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>61000</v>
+        <v>58300</v>
       </c>
       <c r="E14" s="3">
-        <v>66900</v>
+        <v>64000</v>
       </c>
       <c r="F14" s="3">
-        <v>106800</v>
+        <v>102100</v>
       </c>
       <c r="G14" s="3">
-        <v>77500</v>
+        <v>74100</v>
       </c>
       <c r="H14" s="3">
-        <v>125600</v>
+        <v>120100</v>
       </c>
       <c r="I14" s="3">
-        <v>50500</v>
+        <v>48200</v>
       </c>
       <c r="J14" s="3">
-        <v>328700</v>
+        <v>314200</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,20 +930,20 @@
         <v>11</v>
       </c>
       <c r="G15" s="3">
-        <v>39900</v>
+        <v>38100</v>
       </c>
       <c r="H15" s="3">
-        <v>41100</v>
+        <v>39300</v>
       </c>
       <c r="I15" s="3">
-        <v>24700</v>
+        <v>23600</v>
       </c>
       <c r="J15" s="3">
-        <v>21100</v>
+        <v>20200</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4978100</v>
+        <v>4758400</v>
       </c>
       <c r="E17" s="3">
-        <v>5343200</v>
+        <v>5107300</v>
       </c>
       <c r="F17" s="3">
-        <v>3983900</v>
+        <v>3808000</v>
       </c>
       <c r="G17" s="3">
-        <v>3556600</v>
+        <v>3399600</v>
       </c>
       <c r="H17" s="3">
-        <v>3786700</v>
+        <v>3619500</v>
       </c>
       <c r="I17" s="3">
-        <v>3892400</v>
+        <v>3720500</v>
       </c>
       <c r="J17" s="3">
-        <v>4088400</v>
+        <v>3907900</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11700</v>
+        <v>-11200</v>
       </c>
       <c r="E18" s="3">
-        <v>89200</v>
+        <v>85300</v>
       </c>
       <c r="F18" s="3">
-        <v>302800</v>
+        <v>289500</v>
       </c>
       <c r="G18" s="3">
-        <v>354500</v>
+        <v>338800</v>
       </c>
       <c r="H18" s="3">
-        <v>262900</v>
+        <v>251300</v>
       </c>
       <c r="I18" s="3">
-        <v>309900</v>
+        <v>296200</v>
       </c>
       <c r="J18" s="3">
-        <v>-38700</v>
+        <v>-37000</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-59900</v>
+        <v>-57200</v>
       </c>
       <c r="E20" s="3">
-        <v>-78600</v>
+        <v>-75200</v>
       </c>
       <c r="F20" s="3">
-        <v>-18800</v>
+        <v>-18000</v>
       </c>
       <c r="G20" s="3">
-        <v>-49300</v>
+        <v>-47100</v>
       </c>
       <c r="H20" s="3">
-        <v>-207800</v>
+        <v>-198600</v>
       </c>
       <c r="I20" s="3">
-        <v>-38700</v>
+        <v>-37000</v>
       </c>
       <c r="J20" s="3">
-        <v>-38700</v>
+        <v>-37000</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>210300</v>
+        <v>201500</v>
       </c>
       <c r="E21" s="3">
-        <v>272500</v>
+        <v>260900</v>
       </c>
       <c r="F21" s="3">
-        <v>508400</v>
+        <v>486300</v>
       </c>
       <c r="G21" s="3">
-        <v>510700</v>
+        <v>488500</v>
       </c>
       <c r="H21" s="3">
-        <v>286600</v>
+        <v>274300</v>
       </c>
       <c r="I21" s="3">
-        <v>528400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>229100</v>
+        <v>505500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>54000</v>
+        <v>51600</v>
       </c>
       <c r="E22" s="3">
-        <v>99800</v>
+        <v>95400</v>
       </c>
       <c r="F22" s="3">
-        <v>84500</v>
+        <v>80800</v>
       </c>
       <c r="G22" s="3">
-        <v>88000</v>
+        <v>84100</v>
       </c>
       <c r="H22" s="3">
-        <v>137300</v>
+        <v>131300</v>
       </c>
       <c r="I22" s="3">
-        <v>198400</v>
+        <v>189600</v>
       </c>
       <c r="J22" s="3">
-        <v>180800</v>
+        <v>172800</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-125600</v>
+        <v>-120100</v>
       </c>
       <c r="E23" s="3">
-        <v>-89200</v>
+        <v>-85300</v>
       </c>
       <c r="F23" s="3">
-        <v>199500</v>
+        <v>190700</v>
       </c>
       <c r="G23" s="3">
-        <v>217200</v>
+        <v>207600</v>
       </c>
       <c r="H23" s="3">
-        <v>-82200</v>
+        <v>-78500</v>
       </c>
       <c r="I23" s="3">
-        <v>72800</v>
+        <v>69600</v>
       </c>
       <c r="J23" s="3">
-        <v>-258200</v>
+        <v>-246800</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>131500</v>
+        <v>125700</v>
       </c>
       <c r="E24" s="3">
-        <v>35200</v>
+        <v>33700</v>
       </c>
       <c r="F24" s="3">
-        <v>-22300</v>
+        <v>-21300</v>
       </c>
       <c r="G24" s="3">
-        <v>56300</v>
+        <v>53900</v>
       </c>
       <c r="H24" s="3">
-        <v>48100</v>
+        <v>46000</v>
       </c>
       <c r="I24" s="3">
-        <v>57500</v>
+        <v>55000</v>
       </c>
       <c r="J24" s="3">
-        <v>97400</v>
+        <v>93100</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-257100</v>
+        <v>-245700</v>
       </c>
       <c r="E26" s="3">
-        <v>-124400</v>
+        <v>-118900</v>
       </c>
       <c r="F26" s="3">
-        <v>221900</v>
+        <v>212100</v>
       </c>
       <c r="G26" s="3">
-        <v>160800</v>
+        <v>153700</v>
       </c>
       <c r="H26" s="3">
-        <v>-130300</v>
+        <v>-124500</v>
       </c>
       <c r="I26" s="3">
-        <v>15300</v>
+        <v>14600</v>
       </c>
       <c r="J26" s="3">
-        <v>-355700</v>
+        <v>-340000</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-255900</v>
+        <v>-244600</v>
       </c>
       <c r="E27" s="3">
-        <v>-124400</v>
+        <v>-118900</v>
       </c>
       <c r="F27" s="3">
-        <v>224200</v>
+        <v>214300</v>
       </c>
       <c r="G27" s="3">
-        <v>165500</v>
+        <v>158200</v>
       </c>
       <c r="H27" s="3">
-        <v>-124400</v>
+        <v>-118900</v>
       </c>
       <c r="I27" s="3">
-        <v>17600</v>
+        <v>16800</v>
       </c>
       <c r="J27" s="3">
-        <v>-354500</v>
+        <v>-338800</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,34 +1263,34 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>54000</v>
+        <v>51600</v>
       </c>
       <c r="E29" s="3">
-        <v>93900</v>
+        <v>89800</v>
       </c>
       <c r="F29" s="3">
-        <v>-50500</v>
+        <v>-48200</v>
       </c>
       <c r="G29" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="H29" s="3">
-        <v>22300</v>
+        <v>21300</v>
       </c>
       <c r="I29" s="3">
-        <v>-41100</v>
+        <v>-39300</v>
       </c>
       <c r="J29" s="3">
-        <v>-24700</v>
+        <v>-23600</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>59900</v>
+        <v>57200</v>
       </c>
       <c r="E32" s="3">
-        <v>78600</v>
+        <v>75200</v>
       </c>
       <c r="F32" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="G32" s="3">
-        <v>49300</v>
+        <v>47100</v>
       </c>
       <c r="H32" s="3">
-        <v>207800</v>
+        <v>198600</v>
       </c>
       <c r="I32" s="3">
-        <v>38700</v>
+        <v>37000</v>
       </c>
       <c r="J32" s="3">
-        <v>38700</v>
+        <v>37000</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-201900</v>
+        <v>-193000</v>
       </c>
       <c r="E33" s="3">
-        <v>-30500</v>
+        <v>-29200</v>
       </c>
       <c r="F33" s="3">
-        <v>173700</v>
+        <v>166100</v>
       </c>
       <c r="G33" s="3">
-        <v>154900</v>
+        <v>148100</v>
       </c>
       <c r="H33" s="3">
-        <v>-102100</v>
+        <v>-97600</v>
       </c>
       <c r="I33" s="3">
-        <v>-23500</v>
+        <v>-22400</v>
       </c>
       <c r="J33" s="3">
-        <v>-379100</v>
+        <v>-362400</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-201900</v>
+        <v>-193000</v>
       </c>
       <c r="E35" s="3">
-        <v>-30500</v>
+        <v>-29200</v>
       </c>
       <c r="F35" s="3">
-        <v>173700</v>
+        <v>166100</v>
       </c>
       <c r="G35" s="3">
-        <v>154900</v>
+        <v>148100</v>
       </c>
       <c r="H35" s="3">
-        <v>-102100</v>
+        <v>-97600</v>
       </c>
       <c r="I35" s="3">
-        <v>-23500</v>
+        <v>-22400</v>
       </c>
       <c r="J35" s="3">
-        <v>-379100</v>
+        <v>-362400</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,45 +1510,45 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>374400</v>
+        <v>357900</v>
       </c>
       <c r="E41" s="3">
-        <v>435500</v>
+        <v>416300</v>
       </c>
       <c r="F41" s="3">
-        <v>903800</v>
+        <v>863900</v>
       </c>
       <c r="G41" s="3">
-        <v>385000</v>
+        <v>368000</v>
       </c>
       <c r="H41" s="3">
-        <v>360400</v>
+        <v>344500</v>
       </c>
       <c r="I41" s="3">
-        <v>500000</v>
+        <v>478000</v>
       </c>
       <c r="J41" s="3">
-        <v>475400</v>
+        <v>454400</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="E42" s="3">
-        <v>20000</v>
+        <v>19100</v>
       </c>
       <c r="F42" s="3">
-        <v>27000</v>
+        <v>25800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>11</v>
@@ -1529,196 +1564,196 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>933200</v>
+        <v>892000</v>
       </c>
       <c r="E43" s="3">
-        <v>1088100</v>
+        <v>1040100</v>
       </c>
       <c r="F43" s="3">
-        <v>1876900</v>
+        <v>1794100</v>
       </c>
       <c r="G43" s="3">
-        <v>760600</v>
+        <v>727000</v>
       </c>
       <c r="H43" s="3">
-        <v>703100</v>
+        <v>672100</v>
       </c>
       <c r="I43" s="3">
-        <v>670200</v>
+        <v>640700</v>
       </c>
       <c r="J43" s="3">
-        <v>743000</v>
+        <v>710200</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>279400</v>
+        <v>267000</v>
       </c>
       <c r="E44" s="3">
-        <v>274700</v>
+        <v>262500</v>
       </c>
       <c r="F44" s="3">
-        <v>701900</v>
+        <v>671000</v>
       </c>
       <c r="G44" s="3">
-        <v>116200</v>
+        <v>111100</v>
       </c>
       <c r="H44" s="3">
-        <v>122100</v>
+        <v>116700</v>
       </c>
       <c r="I44" s="3">
-        <v>131500</v>
+        <v>125700</v>
       </c>
       <c r="J44" s="3">
-        <v>138500</v>
+        <v>132400</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>221900</v>
+        <v>212100</v>
       </c>
       <c r="E45" s="3">
-        <v>253500</v>
+        <v>242300</v>
       </c>
       <c r="F45" s="3">
-        <v>604500</v>
+        <v>577800</v>
       </c>
       <c r="G45" s="3">
-        <v>370900</v>
+        <v>354500</v>
       </c>
       <c r="H45" s="3">
-        <v>385000</v>
+        <v>368000</v>
       </c>
       <c r="I45" s="3">
-        <v>365100</v>
+        <v>348900</v>
       </c>
       <c r="J45" s="3">
-        <v>417900</v>
+        <v>399400</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1820600</v>
+        <v>1740200</v>
       </c>
       <c r="E46" s="3">
-        <v>2071800</v>
+        <v>1980300</v>
       </c>
       <c r="F46" s="3">
-        <v>2110500</v>
+        <v>2017300</v>
       </c>
       <c r="G46" s="3">
-        <v>1632800</v>
+        <v>1560700</v>
       </c>
       <c r="H46" s="3">
-        <v>1570600</v>
+        <v>1501200</v>
       </c>
       <c r="I46" s="3">
-        <v>1666800</v>
+        <v>1593200</v>
       </c>
       <c r="J46" s="3">
-        <v>1774800</v>
+        <v>1696400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>44600</v>
+        <v>42600</v>
       </c>
       <c r="E47" s="3">
-        <v>71600</v>
+        <v>68400</v>
       </c>
       <c r="F47" s="3">
-        <v>92700</v>
+        <v>88600</v>
       </c>
       <c r="G47" s="3">
-        <v>22300</v>
+        <v>21300</v>
       </c>
       <c r="H47" s="3">
-        <v>44600</v>
+        <v>42600</v>
       </c>
       <c r="I47" s="3">
-        <v>52800</v>
+        <v>50500</v>
       </c>
       <c r="J47" s="3">
-        <v>48100</v>
+        <v>46000</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>285200</v>
+        <v>272600</v>
       </c>
       <c r="E48" s="3">
-        <v>335700</v>
+        <v>320900</v>
       </c>
       <c r="F48" s="3">
-        <v>713700</v>
+        <v>682200</v>
       </c>
       <c r="G48" s="3">
-        <v>333400</v>
+        <v>318600</v>
       </c>
       <c r="H48" s="3">
-        <v>343900</v>
+        <v>328700</v>
       </c>
       <c r="I48" s="3">
-        <v>410800</v>
+        <v>392700</v>
       </c>
       <c r="J48" s="3">
-        <v>470700</v>
+        <v>449900</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1839400</v>
+        <v>1758200</v>
       </c>
       <c r="E49" s="3">
-        <v>2101100</v>
+        <v>2008400</v>
       </c>
       <c r="F49" s="3">
-        <v>3015500</v>
+        <v>2882400</v>
       </c>
       <c r="G49" s="3">
-        <v>1084600</v>
+        <v>1036700</v>
       </c>
       <c r="H49" s="3">
-        <v>968400</v>
+        <v>925600</v>
       </c>
       <c r="I49" s="3">
-        <v>1069300</v>
+        <v>1022100</v>
       </c>
       <c r="J49" s="3">
-        <v>1103400</v>
+        <v>1054700</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>367400</v>
+        <v>351200</v>
       </c>
       <c r="E52" s="3">
-        <v>562300</v>
+        <v>537400</v>
       </c>
       <c r="F52" s="3">
-        <v>780600</v>
+        <v>746100</v>
       </c>
       <c r="G52" s="3">
-        <v>524700</v>
+        <v>501500</v>
       </c>
       <c r="H52" s="3">
-        <v>549300</v>
+        <v>525100</v>
       </c>
       <c r="I52" s="3">
-        <v>599800</v>
+        <v>573300</v>
       </c>
       <c r="J52" s="3">
-        <v>616300</v>
+        <v>589000</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4357200</v>
+        <v>4164800</v>
       </c>
       <c r="E54" s="3">
-        <v>5142500</v>
+        <v>4915400</v>
       </c>
       <c r="F54" s="3">
-        <v>5323200</v>
+        <v>5088200</v>
       </c>
       <c r="G54" s="3">
-        <v>3597700</v>
+        <v>3438900</v>
       </c>
       <c r="H54" s="3">
-        <v>3476800</v>
+        <v>3323300</v>
       </c>
       <c r="I54" s="3">
-        <v>3799600</v>
+        <v>3631900</v>
       </c>
       <c r="J54" s="3">
-        <v>4013300</v>
+        <v>3836100</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1111600</v>
+        <v>1062500</v>
       </c>
       <c r="E57" s="3">
-        <v>1164400</v>
+        <v>1113000</v>
       </c>
       <c r="F57" s="3">
-        <v>874500</v>
+        <v>835900</v>
       </c>
       <c r="G57" s="3">
-        <v>589300</v>
+        <v>563200</v>
       </c>
       <c r="H57" s="3">
-        <v>528200</v>
+        <v>504900</v>
       </c>
       <c r="I57" s="3">
-        <v>522300</v>
+        <v>499300</v>
       </c>
       <c r="J57" s="3">
-        <v>585700</v>
+        <v>559900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="E58" s="3">
-        <v>54000</v>
+        <v>51600</v>
       </c>
       <c r="F58" s="3">
-        <v>189000</v>
+        <v>180600</v>
       </c>
       <c r="G58" s="3">
-        <v>58700</v>
+        <v>56100</v>
       </c>
       <c r="H58" s="3">
-        <v>88000</v>
+        <v>84100</v>
       </c>
       <c r="I58" s="3">
-        <v>112700</v>
+        <v>107700</v>
       </c>
       <c r="J58" s="3">
-        <v>99800</v>
+        <v>95400</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>828700</v>
+        <v>792100</v>
       </c>
       <c r="E59" s="3">
-        <v>1009500</v>
+        <v>964900</v>
       </c>
       <c r="F59" s="3">
-        <v>1891000</v>
+        <v>1807500</v>
       </c>
       <c r="G59" s="3">
-        <v>827500</v>
+        <v>791000</v>
       </c>
       <c r="H59" s="3">
-        <v>835800</v>
+        <v>798900</v>
       </c>
       <c r="I59" s="3">
-        <v>882700</v>
+        <v>843700</v>
       </c>
       <c r="J59" s="3">
-        <v>868600</v>
+        <v>830300</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1959100</v>
+        <v>1872600</v>
       </c>
       <c r="E60" s="3">
-        <v>2227900</v>
+        <v>2129500</v>
       </c>
       <c r="F60" s="3">
-        <v>2105800</v>
+        <v>2012900</v>
       </c>
       <c r="G60" s="3">
-        <v>1475500</v>
+        <v>1410300</v>
       </c>
       <c r="H60" s="3">
-        <v>1452000</v>
+        <v>1387900</v>
       </c>
       <c r="I60" s="3">
-        <v>1517700</v>
+        <v>1450700</v>
       </c>
       <c r="J60" s="3">
-        <v>1554100</v>
+        <v>1485500</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1264200</v>
+        <v>1208400</v>
       </c>
       <c r="E61" s="3">
-        <v>1171500</v>
+        <v>1119700</v>
       </c>
       <c r="F61" s="3">
-        <v>1416800</v>
+        <v>1354200</v>
       </c>
       <c r="G61" s="3">
-        <v>1000100</v>
+        <v>955900</v>
       </c>
       <c r="H61" s="3">
-        <v>1098700</v>
+        <v>1050200</v>
       </c>
       <c r="I61" s="3">
-        <v>1196100</v>
+        <v>1143300</v>
       </c>
       <c r="J61" s="3">
-        <v>1457900</v>
+        <v>1393500</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>739500</v>
+        <v>706900</v>
       </c>
       <c r="E62" s="3">
-        <v>916700</v>
+        <v>876300</v>
       </c>
       <c r="F62" s="3">
-        <v>935500</v>
+        <v>894200</v>
       </c>
       <c r="G62" s="3">
-        <v>865100</v>
+        <v>826900</v>
       </c>
       <c r="H62" s="3">
-        <v>786500</v>
+        <v>751700</v>
       </c>
       <c r="I62" s="3">
-        <v>802900</v>
+        <v>767400</v>
       </c>
       <c r="J62" s="3">
-        <v>819300</v>
+        <v>783100</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3966300</v>
+        <v>3791200</v>
       </c>
       <c r="E66" s="3">
-        <v>4319600</v>
+        <v>4128900</v>
       </c>
       <c r="F66" s="3">
-        <v>4462800</v>
+        <v>4265800</v>
       </c>
       <c r="G66" s="3">
-        <v>3336000</v>
+        <v>3188700</v>
       </c>
       <c r="H66" s="3">
-        <v>3337100</v>
+        <v>3189800</v>
       </c>
       <c r="I66" s="3">
-        <v>3521400</v>
+        <v>3366000</v>
       </c>
       <c r="J66" s="3">
-        <v>3836000</v>
+        <v>3666700</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1466100</v>
+        <v>-1401400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1218400</v>
+        <v>-1164600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1142100</v>
+        <v>-1091700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1338100</v>
+        <v>-1279100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1423800</v>
+        <v>-1361000</v>
       </c>
       <c r="I72" s="3">
-        <v>-1340500</v>
+        <v>-1281300</v>
       </c>
       <c r="J72" s="3">
-        <v>-1246600</v>
+        <v>-1191600</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>390900</v>
+        <v>373600</v>
       </c>
       <c r="E76" s="3">
-        <v>822800</v>
+        <v>786500</v>
       </c>
       <c r="F76" s="3">
-        <v>860400</v>
+        <v>822400</v>
       </c>
       <c r="G76" s="3">
-        <v>261800</v>
+        <v>250200</v>
       </c>
       <c r="H76" s="3">
-        <v>139700</v>
+        <v>133500</v>
       </c>
       <c r="I76" s="3">
-        <v>278200</v>
+        <v>265900</v>
       </c>
       <c r="J76" s="3">
-        <v>177200</v>
+        <v>169400</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-201900</v>
+        <v>-193000</v>
       </c>
       <c r="E81" s="3">
-        <v>-30500</v>
+        <v>-29200</v>
       </c>
       <c r="F81" s="3">
-        <v>173700</v>
+        <v>166100</v>
       </c>
       <c r="G81" s="3">
-        <v>154900</v>
+        <v>148100</v>
       </c>
       <c r="H81" s="3">
-        <v>-102100</v>
+        <v>-97600</v>
       </c>
       <c r="I81" s="3">
-        <v>-23500</v>
+        <v>-22400</v>
       </c>
       <c r="J81" s="3">
-        <v>-379100</v>
+        <v>-362400</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>281700</v>
+        <v>269300</v>
       </c>
       <c r="E83" s="3">
-        <v>261800</v>
+        <v>250200</v>
       </c>
       <c r="F83" s="3">
-        <v>224200</v>
+        <v>214300</v>
       </c>
       <c r="G83" s="3">
-        <v>205400</v>
+        <v>196300</v>
       </c>
       <c r="H83" s="3">
-        <v>231200</v>
+        <v>221000</v>
       </c>
       <c r="I83" s="3">
-        <v>257100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>306400</v>
+        <v>245700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>194900</v>
+        <v>186300</v>
       </c>
       <c r="E89" s="3">
-        <v>478900</v>
+        <v>457800</v>
       </c>
       <c r="F89" s="3">
-        <v>424900</v>
+        <v>406200</v>
       </c>
       <c r="G89" s="3">
-        <v>395600</v>
+        <v>378100</v>
       </c>
       <c r="H89" s="3">
-        <v>313400</v>
+        <v>299600</v>
       </c>
       <c r="I89" s="3">
-        <v>297000</v>
+        <v>283900</v>
       </c>
       <c r="J89" s="3">
-        <v>288800</v>
+        <v>276000</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-172600</v>
+        <v>-58300</v>
       </c>
       <c r="E91" s="3">
-        <v>-179600</v>
+        <v>-76300</v>
       </c>
       <c r="F91" s="3">
-        <v>-125600</v>
+        <v>-57200</v>
       </c>
       <c r="G91" s="3">
-        <v>-129100</v>
+        <v>-67300</v>
       </c>
       <c r="H91" s="3">
-        <v>-135000</v>
+        <v>-71800</v>
       </c>
       <c r="I91" s="3">
-        <v>-174900</v>
+        <v>-89800</v>
       </c>
       <c r="J91" s="3">
-        <v>-199500</v>
+        <v>-118900</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-177200</v>
+        <v>-169400</v>
       </c>
       <c r="E94" s="3">
-        <v>-137300</v>
+        <v>-131300</v>
       </c>
       <c r="F94" s="3">
-        <v>-928500</v>
+        <v>-887500</v>
       </c>
       <c r="G94" s="3">
-        <v>-127900</v>
+        <v>-122300</v>
       </c>
       <c r="H94" s="3">
-        <v>-98600</v>
+        <v>-94200</v>
       </c>
       <c r="I94" s="3">
-        <v>-166700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-185500</v>
+        <v>-159300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,18 +2862,18 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-29300</v>
+        <v>-28000</v>
       </c>
       <c r="E96" s="3">
-        <v>-29300</v>
+        <v>-28000</v>
       </c>
       <c r="F96" s="3">
-        <v>-20000</v>
+        <v>-19100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -2854,7 +2889,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32900</v>
+        <v>-31400</v>
       </c>
       <c r="E100" s="3">
-        <v>-388500</v>
+        <v>-371400</v>
       </c>
       <c r="F100" s="3">
-        <v>577500</v>
+        <v>552000</v>
       </c>
       <c r="G100" s="3">
-        <v>-259400</v>
+        <v>-248000</v>
       </c>
       <c r="H100" s="3">
-        <v>-291100</v>
+        <v>-278300</v>
       </c>
       <c r="I100" s="3">
-        <v>-85700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-66900</v>
+        <v>-81900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-45800</v>
+        <v>-43800</v>
       </c>
       <c r="E101" s="3">
-        <v>30500</v>
+        <v>29200</v>
       </c>
       <c r="F101" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="G101" s="3">
-        <v>16400</v>
+        <v>15700</v>
       </c>
       <c r="H101" s="3">
-        <v>-29300</v>
+        <v>-28000</v>
       </c>
       <c r="I101" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>8200</v>
+        <v>-12300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-61000</v>
+        <v>-58300</v>
       </c>
       <c r="E102" s="3">
-        <v>-16400</v>
+        <v>-15700</v>
       </c>
       <c r="F102" s="3">
-        <v>66900</v>
+        <v>64000</v>
       </c>
       <c r="G102" s="3">
-        <v>24700</v>
+        <v>23600</v>
       </c>
       <c r="H102" s="3">
-        <v>-105600</v>
+        <v>-101000</v>
       </c>
       <c r="I102" s="3">
-        <v>31700</v>
+        <v>30300</v>
       </c>
       <c r="J102" s="3">
-        <v>44600</v>
+        <v>42600</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/TCLRY_YR_FIN.xlsx
+++ b/Financials/Yearly/TCLRY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0122B0D7-BDF9-4180-A929-C489F28D3CE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TCLRY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>TCLRY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4747100</v>
+        <v>4378800</v>
       </c>
       <c r="E8" s="3">
-        <v>5192600</v>
+        <v>4669800</v>
       </c>
       <c r="F8" s="3">
-        <v>4097500</v>
+        <v>5081500</v>
       </c>
       <c r="G8" s="3">
-        <v>3738500</v>
+        <v>4009900</v>
       </c>
       <c r="H8" s="3">
+        <v>3658500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3788100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3930800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3870900</v>
       </c>
-      <c r="I8" s="3">
-        <v>4016700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3870900</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4096400</v>
+        <v>3866100</v>
       </c>
       <c r="E9" s="3">
-        <v>4415000</v>
+        <v>4008800</v>
       </c>
       <c r="F9" s="3">
-        <v>3167400</v>
+        <v>4320600</v>
       </c>
       <c r="G9" s="3">
-        <v>2819600</v>
+        <v>3099700</v>
       </c>
       <c r="H9" s="3">
-        <v>2947500</v>
+        <v>2759300</v>
       </c>
       <c r="I9" s="3">
-        <v>3085500</v>
+        <v>2884400</v>
       </c>
       <c r="J9" s="3">
+        <v>3019500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3045100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>650800</v>
+        <v>512800</v>
       </c>
       <c r="E10" s="3">
-        <v>777500</v>
+        <v>661000</v>
       </c>
       <c r="F10" s="3">
-        <v>930100</v>
+        <v>760900</v>
       </c>
       <c r="G10" s="3">
-        <v>918900</v>
+        <v>910200</v>
       </c>
       <c r="H10" s="3">
-        <v>923400</v>
+        <v>899300</v>
       </c>
       <c r="I10" s="3">
-        <v>931300</v>
+        <v>903700</v>
       </c>
       <c r="J10" s="3">
+        <v>911300</v>
+      </c>
+      <c r="K10" s="3">
         <v>825800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>193000</v>
+        <v>139400</v>
       </c>
       <c r="E12" s="3">
-        <v>198600</v>
+        <v>163600</v>
       </c>
       <c r="F12" s="3">
-        <v>144700</v>
+        <v>194300</v>
       </c>
       <c r="G12" s="3">
-        <v>114400</v>
+        <v>141600</v>
       </c>
       <c r="H12" s="3">
-        <v>121200</v>
+        <v>112000</v>
       </c>
       <c r="I12" s="3">
-        <v>124500</v>
+        <v>118600</v>
       </c>
       <c r="J12" s="3">
+        <v>121900</v>
+      </c>
+      <c r="K12" s="3">
         <v>123400</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>58300</v>
+        <v>157000</v>
       </c>
       <c r="E14" s="3">
-        <v>64000</v>
+        <v>57100</v>
       </c>
       <c r="F14" s="3">
-        <v>102100</v>
+        <v>62600</v>
       </c>
       <c r="G14" s="3">
-        <v>74100</v>
+        <v>99900</v>
       </c>
       <c r="H14" s="3">
-        <v>120100</v>
+        <v>72500</v>
       </c>
       <c r="I14" s="3">
-        <v>48200</v>
+        <v>117500</v>
       </c>
       <c r="J14" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K14" s="3">
         <v>314200</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -929,21 +916,24 @@
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3">
-        <v>38100</v>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H15" s="3">
-        <v>39300</v>
+        <v>37300</v>
       </c>
       <c r="I15" s="3">
-        <v>23600</v>
+        <v>38400</v>
       </c>
       <c r="J15" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K15" s="3">
         <v>20200</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4758400</v>
+        <v>4509500</v>
       </c>
       <c r="E17" s="3">
-        <v>5107300</v>
+        <v>4625900</v>
       </c>
       <c r="F17" s="3">
-        <v>3808000</v>
+        <v>4998100</v>
       </c>
       <c r="G17" s="3">
-        <v>3399600</v>
+        <v>3726600</v>
       </c>
       <c r="H17" s="3">
-        <v>3619500</v>
+        <v>3326900</v>
       </c>
       <c r="I17" s="3">
-        <v>3720500</v>
+        <v>3542100</v>
       </c>
       <c r="J17" s="3">
+        <v>3641000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3907900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11200</v>
+        <v>-130700</v>
       </c>
       <c r="E18" s="3">
-        <v>85300</v>
+        <v>43900</v>
       </c>
       <c r="F18" s="3">
-        <v>289500</v>
+        <v>83400</v>
       </c>
       <c r="G18" s="3">
-        <v>338800</v>
+        <v>283300</v>
       </c>
       <c r="H18" s="3">
-        <v>251300</v>
+        <v>331600</v>
       </c>
       <c r="I18" s="3">
-        <v>296200</v>
+        <v>246000</v>
       </c>
       <c r="J18" s="3">
+        <v>289900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-37000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57200</v>
+        <v>-8800</v>
       </c>
       <c r="E20" s="3">
-        <v>-75200</v>
+        <v>-54900</v>
       </c>
       <c r="F20" s="3">
-        <v>-18000</v>
+        <v>-73600</v>
       </c>
       <c r="G20" s="3">
-        <v>-47100</v>
+        <v>-17600</v>
       </c>
       <c r="H20" s="3">
-        <v>-198600</v>
+        <v>-46100</v>
       </c>
       <c r="I20" s="3">
+        <v>-194300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-37000</v>
       </c>
-      <c r="J20" s="3">
-        <v>-37000</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>201500</v>
+        <v>117900</v>
       </c>
       <c r="E21" s="3">
-        <v>260900</v>
+        <v>252900</v>
       </c>
       <c r="F21" s="3">
-        <v>486300</v>
+        <v>255100</v>
       </c>
       <c r="G21" s="3">
-        <v>488500</v>
+        <v>475800</v>
       </c>
       <c r="H21" s="3">
-        <v>274300</v>
+        <v>477900</v>
       </c>
       <c r="I21" s="3">
-        <v>505500</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>268200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>494500</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51600</v>
+        <v>47200</v>
       </c>
       <c r="E22" s="3">
-        <v>95400</v>
+        <v>50500</v>
       </c>
       <c r="F22" s="3">
-        <v>80800</v>
+        <v>93300</v>
       </c>
       <c r="G22" s="3">
-        <v>84100</v>
+        <v>79100</v>
       </c>
       <c r="H22" s="3">
-        <v>131300</v>
+        <v>82400</v>
       </c>
       <c r="I22" s="3">
-        <v>189600</v>
+        <v>128500</v>
       </c>
       <c r="J22" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K22" s="3">
         <v>172800</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-120100</v>
+        <v>-186700</v>
       </c>
       <c r="E23" s="3">
-        <v>-85300</v>
+        <v>-61500</v>
       </c>
       <c r="F23" s="3">
-        <v>190700</v>
+        <v>-83400</v>
       </c>
       <c r="G23" s="3">
-        <v>207600</v>
+        <v>186700</v>
       </c>
       <c r="H23" s="3">
-        <v>-78500</v>
+        <v>203100</v>
       </c>
       <c r="I23" s="3">
-        <v>69600</v>
+        <v>-76900</v>
       </c>
       <c r="J23" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-246800</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>125700</v>
+        <v>59300</v>
       </c>
       <c r="E24" s="3">
-        <v>33700</v>
+        <v>123000</v>
       </c>
       <c r="F24" s="3">
-        <v>-21300</v>
+        <v>32900</v>
       </c>
       <c r="G24" s="3">
-        <v>53900</v>
+        <v>-20900</v>
       </c>
       <c r="H24" s="3">
-        <v>46000</v>
+        <v>52700</v>
       </c>
       <c r="I24" s="3">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="J24" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K24" s="3">
         <v>93100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-245700</v>
+        <v>-246000</v>
       </c>
       <c r="E26" s="3">
-        <v>-118900</v>
+        <v>-184500</v>
       </c>
       <c r="F26" s="3">
-        <v>212100</v>
+        <v>-116400</v>
       </c>
       <c r="G26" s="3">
-        <v>153700</v>
+        <v>207500</v>
       </c>
       <c r="H26" s="3">
-        <v>-124500</v>
+        <v>150400</v>
       </c>
       <c r="I26" s="3">
-        <v>14600</v>
+        <v>-121900</v>
       </c>
       <c r="J26" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-340000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-244600</v>
+        <v>-246000</v>
       </c>
       <c r="E27" s="3">
-        <v>-118900</v>
+        <v>-184500</v>
       </c>
       <c r="F27" s="3">
-        <v>214300</v>
+        <v>-116400</v>
       </c>
       <c r="G27" s="3">
-        <v>158200</v>
+        <v>209700</v>
       </c>
       <c r="H27" s="3">
-        <v>-118900</v>
+        <v>154800</v>
       </c>
       <c r="I27" s="3">
-        <v>16800</v>
+        <v>-116400</v>
       </c>
       <c r="J27" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-338800</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,36 +1283,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>51600</v>
+        <v>172400</v>
       </c>
       <c r="E29" s="3">
-        <v>89800</v>
+        <v>-5500</v>
       </c>
       <c r="F29" s="3">
-        <v>-48200</v>
+        <v>87800</v>
       </c>
       <c r="G29" s="3">
-        <v>-10100</v>
+        <v>-47200</v>
       </c>
       <c r="H29" s="3">
-        <v>21300</v>
+        <v>-9900</v>
       </c>
       <c r="I29" s="3">
-        <v>-39300</v>
+        <v>20900</v>
       </c>
       <c r="J29" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-23600</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57200</v>
+        <v>8800</v>
       </c>
       <c r="E32" s="3">
-        <v>75200</v>
+        <v>54900</v>
       </c>
       <c r="F32" s="3">
-        <v>18000</v>
+        <v>73600</v>
       </c>
       <c r="G32" s="3">
-        <v>47100</v>
+        <v>17600</v>
       </c>
       <c r="H32" s="3">
-        <v>198600</v>
+        <v>46100</v>
       </c>
       <c r="I32" s="3">
+        <v>194300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K32" s="3">
         <v>37000</v>
       </c>
-      <c r="J32" s="3">
-        <v>37000</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-193000</v>
+        <v>-73600</v>
       </c>
       <c r="E33" s="3">
-        <v>-29200</v>
+        <v>-190000</v>
       </c>
       <c r="F33" s="3">
-        <v>166100</v>
+        <v>-28500</v>
       </c>
       <c r="G33" s="3">
-        <v>148100</v>
+        <v>162500</v>
       </c>
       <c r="H33" s="3">
-        <v>-97600</v>
+        <v>144900</v>
       </c>
       <c r="I33" s="3">
-        <v>-22400</v>
+        <v>-95500</v>
       </c>
       <c r="J33" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-362400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-193000</v>
+        <v>-73600</v>
       </c>
       <c r="E35" s="3">
-        <v>-29200</v>
+        <v>-190000</v>
       </c>
       <c r="F35" s="3">
-        <v>166100</v>
+        <v>-28500</v>
       </c>
       <c r="G35" s="3">
-        <v>148100</v>
+        <v>162500</v>
       </c>
       <c r="H35" s="3">
-        <v>-97600</v>
+        <v>144900</v>
       </c>
       <c r="I35" s="3">
-        <v>-22400</v>
+        <v>-95500</v>
       </c>
       <c r="J35" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-362400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,49 +1559,53 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>357900</v>
+        <v>319500</v>
       </c>
       <c r="E41" s="3">
-        <v>416300</v>
+        <v>350300</v>
       </c>
       <c r="F41" s="3">
-        <v>863900</v>
+        <v>407400</v>
       </c>
       <c r="G41" s="3">
-        <v>368000</v>
+        <v>845500</v>
       </c>
       <c r="H41" s="3">
-        <v>344500</v>
+        <v>360100</v>
       </c>
       <c r="I41" s="3">
-        <v>478000</v>
+        <v>337100</v>
       </c>
       <c r="J41" s="3">
+        <v>467700</v>
+      </c>
+      <c r="K41" s="3">
         <v>454400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11200</v>
+        <v>15400</v>
       </c>
       <c r="E42" s="3">
-        <v>19100</v>
+        <v>11000</v>
       </c>
       <c r="F42" s="3">
-        <v>25800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>11</v>
+        <v>18700</v>
+      </c>
+      <c r="G42" s="3">
+        <v>25300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>11</v>
@@ -1562,198 +1616,222 @@
       <c r="J42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>892000</v>
+        <v>923400</v>
       </c>
       <c r="E43" s="3">
-        <v>1040100</v>
+        <v>872900</v>
       </c>
       <c r="F43" s="3">
-        <v>1794100</v>
+        <v>1017800</v>
       </c>
       <c r="G43" s="3">
-        <v>727000</v>
+        <v>1755700</v>
       </c>
       <c r="H43" s="3">
-        <v>672100</v>
+        <v>711500</v>
       </c>
       <c r="I43" s="3">
-        <v>640700</v>
+        <v>657700</v>
       </c>
       <c r="J43" s="3">
+        <v>627000</v>
+      </c>
+      <c r="K43" s="3">
         <v>710200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>267000</v>
+        <v>294300</v>
       </c>
       <c r="E44" s="3">
-        <v>262500</v>
+        <v>261300</v>
       </c>
       <c r="F44" s="3">
-        <v>671000</v>
+        <v>256900</v>
       </c>
       <c r="G44" s="3">
-        <v>111100</v>
+        <v>656600</v>
       </c>
       <c r="H44" s="3">
-        <v>116700</v>
+        <v>108700</v>
       </c>
       <c r="I44" s="3">
-        <v>125700</v>
+        <v>114200</v>
       </c>
       <c r="J44" s="3">
+        <v>123000</v>
+      </c>
+      <c r="K44" s="3">
         <v>132400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>212100</v>
+        <v>267900</v>
       </c>
       <c r="E45" s="3">
-        <v>242300</v>
+        <v>207500</v>
       </c>
       <c r="F45" s="3">
-        <v>577800</v>
+        <v>237200</v>
       </c>
       <c r="G45" s="3">
-        <v>354500</v>
+        <v>565500</v>
       </c>
       <c r="H45" s="3">
-        <v>368000</v>
+        <v>347000</v>
       </c>
       <c r="I45" s="3">
-        <v>348900</v>
+        <v>360100</v>
       </c>
       <c r="J45" s="3">
+        <v>341500</v>
+      </c>
+      <c r="K45" s="3">
         <v>399400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1740200</v>
+        <v>1820500</v>
       </c>
       <c r="E46" s="3">
-        <v>1980300</v>
+        <v>1703000</v>
       </c>
       <c r="F46" s="3">
-        <v>2017300</v>
+        <v>1938000</v>
       </c>
       <c r="G46" s="3">
-        <v>1560700</v>
+        <v>1974200</v>
       </c>
       <c r="H46" s="3">
-        <v>1501200</v>
+        <v>1527300</v>
       </c>
       <c r="I46" s="3">
-        <v>1593200</v>
+        <v>1469100</v>
       </c>
       <c r="J46" s="3">
+        <v>1559200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1696400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42600</v>
+        <v>28500</v>
       </c>
       <c r="E47" s="3">
-        <v>68400</v>
+        <v>41700</v>
       </c>
       <c r="F47" s="3">
-        <v>88600</v>
+        <v>67000</v>
       </c>
       <c r="G47" s="3">
-        <v>21300</v>
+        <v>86700</v>
       </c>
       <c r="H47" s="3">
-        <v>42600</v>
+        <v>20900</v>
       </c>
       <c r="I47" s="3">
-        <v>50500</v>
+        <v>41700</v>
       </c>
       <c r="J47" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K47" s="3">
         <v>46000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>272600</v>
+        <v>255800</v>
       </c>
       <c r="E48" s="3">
-        <v>320900</v>
+        <v>266800</v>
       </c>
       <c r="F48" s="3">
-        <v>682200</v>
+        <v>314000</v>
       </c>
       <c r="G48" s="3">
-        <v>318600</v>
+        <v>667600</v>
       </c>
       <c r="H48" s="3">
-        <v>328700</v>
+        <v>311800</v>
       </c>
       <c r="I48" s="3">
-        <v>392700</v>
+        <v>321700</v>
       </c>
       <c r="J48" s="3">
+        <v>384300</v>
+      </c>
+      <c r="K48" s="3">
         <v>449900</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1758200</v>
+        <v>1746900</v>
       </c>
       <c r="E49" s="3">
-        <v>2008400</v>
+        <v>1720600</v>
       </c>
       <c r="F49" s="3">
-        <v>2882400</v>
+        <v>1965400</v>
       </c>
       <c r="G49" s="3">
-        <v>1036700</v>
+        <v>2820800</v>
       </c>
       <c r="H49" s="3">
-        <v>925600</v>
+        <v>1014600</v>
       </c>
       <c r="I49" s="3">
-        <v>1022100</v>
+        <v>905900</v>
       </c>
       <c r="J49" s="3">
+        <v>1000300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1054700</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>351200</v>
+        <v>275600</v>
       </c>
       <c r="E52" s="3">
-        <v>537400</v>
+        <v>343700</v>
       </c>
       <c r="F52" s="3">
-        <v>746100</v>
+        <v>525900</v>
       </c>
       <c r="G52" s="3">
-        <v>501500</v>
+        <v>730200</v>
       </c>
       <c r="H52" s="3">
-        <v>525100</v>
+        <v>490800</v>
       </c>
       <c r="I52" s="3">
-        <v>573300</v>
+        <v>513900</v>
       </c>
       <c r="J52" s="3">
+        <v>561100</v>
+      </c>
+      <c r="K52" s="3">
         <v>589000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4164800</v>
+        <v>4127400</v>
       </c>
       <c r="E54" s="3">
-        <v>4915400</v>
+        <v>4075800</v>
       </c>
       <c r="F54" s="3">
-        <v>5088200</v>
+        <v>4810300</v>
       </c>
       <c r="G54" s="3">
-        <v>3438900</v>
+        <v>4979400</v>
       </c>
       <c r="H54" s="3">
-        <v>3323300</v>
+        <v>3365400</v>
       </c>
       <c r="I54" s="3">
-        <v>3631900</v>
+        <v>3252300</v>
       </c>
       <c r="J54" s="3">
+        <v>3554200</v>
+      </c>
+      <c r="K54" s="3">
         <v>3836100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1062500</v>
+        <v>1246200</v>
       </c>
       <c r="E57" s="3">
-        <v>1113000</v>
+        <v>1039800</v>
       </c>
       <c r="F57" s="3">
-        <v>835900</v>
+        <v>1089200</v>
       </c>
       <c r="G57" s="3">
-        <v>563200</v>
+        <v>818000</v>
       </c>
       <c r="H57" s="3">
-        <v>504900</v>
+        <v>551200</v>
       </c>
       <c r="I57" s="3">
-        <v>499300</v>
+        <v>494100</v>
       </c>
       <c r="J57" s="3">
+        <v>488600</v>
+      </c>
+      <c r="K57" s="3">
         <v>559900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18000</v>
+        <v>18700</v>
       </c>
       <c r="E58" s="3">
-        <v>51600</v>
+        <v>17600</v>
       </c>
       <c r="F58" s="3">
-        <v>180600</v>
+        <v>50500</v>
       </c>
       <c r="G58" s="3">
-        <v>56100</v>
+        <v>176800</v>
       </c>
       <c r="H58" s="3">
-        <v>84100</v>
+        <v>54900</v>
       </c>
       <c r="I58" s="3">
-        <v>107700</v>
+        <v>82400</v>
       </c>
       <c r="J58" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K58" s="3">
         <v>95400</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>792100</v>
+        <v>830100</v>
       </c>
       <c r="E59" s="3">
-        <v>964900</v>
+        <v>775200</v>
       </c>
       <c r="F59" s="3">
-        <v>1807500</v>
+        <v>944300</v>
       </c>
       <c r="G59" s="3">
-        <v>791000</v>
+        <v>1768900</v>
       </c>
       <c r="H59" s="3">
-        <v>798900</v>
+        <v>774100</v>
       </c>
       <c r="I59" s="3">
-        <v>843700</v>
+        <v>781800</v>
       </c>
       <c r="J59" s="3">
+        <v>825700</v>
+      </c>
+      <c r="K59" s="3">
         <v>830300</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1872600</v>
+        <v>2095000</v>
       </c>
       <c r="E60" s="3">
-        <v>2129500</v>
+        <v>1832600</v>
       </c>
       <c r="F60" s="3">
-        <v>2012900</v>
+        <v>2084000</v>
       </c>
       <c r="G60" s="3">
-        <v>1410300</v>
+        <v>1969800</v>
       </c>
       <c r="H60" s="3">
-        <v>1387900</v>
+        <v>1380200</v>
       </c>
       <c r="I60" s="3">
-        <v>1450700</v>
+        <v>1358200</v>
       </c>
       <c r="J60" s="3">
+        <v>1419700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1485500</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1208400</v>
+        <v>1102400</v>
       </c>
       <c r="E61" s="3">
-        <v>1119700</v>
+        <v>1182500</v>
       </c>
       <c r="F61" s="3">
-        <v>1354200</v>
+        <v>1095800</v>
       </c>
       <c r="G61" s="3">
-        <v>955900</v>
+        <v>1325300</v>
       </c>
       <c r="H61" s="3">
-        <v>1050200</v>
+        <v>935500</v>
       </c>
       <c r="I61" s="3">
-        <v>1143300</v>
+        <v>1027700</v>
       </c>
       <c r="J61" s="3">
+        <v>1118900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1393500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>706900</v>
+        <v>631400</v>
       </c>
       <c r="E62" s="3">
-        <v>876300</v>
+        <v>691700</v>
       </c>
       <c r="F62" s="3">
-        <v>894200</v>
+        <v>857500</v>
       </c>
       <c r="G62" s="3">
-        <v>826900</v>
+        <v>875100</v>
       </c>
       <c r="H62" s="3">
-        <v>751700</v>
+        <v>809200</v>
       </c>
       <c r="I62" s="3">
-        <v>767400</v>
+        <v>735700</v>
       </c>
       <c r="J62" s="3">
+        <v>751000</v>
+      </c>
+      <c r="K62" s="3">
         <v>783100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3791200</v>
+        <v>3829800</v>
       </c>
       <c r="E66" s="3">
-        <v>4128900</v>
+        <v>3710100</v>
       </c>
       <c r="F66" s="3">
-        <v>4265800</v>
+        <v>4040600</v>
       </c>
       <c r="G66" s="3">
-        <v>3188700</v>
+        <v>4174600</v>
       </c>
       <c r="H66" s="3">
-        <v>3189800</v>
+        <v>3120500</v>
       </c>
       <c r="I66" s="3">
-        <v>3366000</v>
+        <v>3121600</v>
       </c>
       <c r="J66" s="3">
+        <v>3294000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3666700</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1401400</v>
+        <v>-124100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1164600</v>
+        <v>-1371400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1091700</v>
+        <v>-1139700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1279100</v>
+        <v>-1068400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1361000</v>
+        <v>-1251700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1281300</v>
+        <v>-1331900</v>
       </c>
       <c r="J72" s="3">
+        <v>-1253900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1191600</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>373600</v>
+        <v>297600</v>
       </c>
       <c r="E76" s="3">
-        <v>786500</v>
+        <v>365600</v>
       </c>
       <c r="F76" s="3">
-        <v>822400</v>
+        <v>769700</v>
       </c>
       <c r="G76" s="3">
-        <v>250200</v>
+        <v>804800</v>
       </c>
       <c r="H76" s="3">
-        <v>133500</v>
+        <v>244900</v>
       </c>
       <c r="I76" s="3">
-        <v>265900</v>
+        <v>130700</v>
       </c>
       <c r="J76" s="3">
+        <v>260200</v>
+      </c>
+      <c r="K76" s="3">
         <v>169400</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-193000</v>
+        <v>-73600</v>
       </c>
       <c r="E81" s="3">
-        <v>-29200</v>
+        <v>-190000</v>
       </c>
       <c r="F81" s="3">
-        <v>166100</v>
+        <v>-28500</v>
       </c>
       <c r="G81" s="3">
-        <v>148100</v>
+        <v>162500</v>
       </c>
       <c r="H81" s="3">
-        <v>-97600</v>
+        <v>144900</v>
       </c>
       <c r="I81" s="3">
-        <v>-22400</v>
+        <v>-95500</v>
       </c>
       <c r="J81" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-362400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>269300</v>
+        <v>256900</v>
       </c>
       <c r="E83" s="3">
-        <v>250200</v>
+        <v>263500</v>
       </c>
       <c r="F83" s="3">
-        <v>214300</v>
+        <v>244900</v>
       </c>
       <c r="G83" s="3">
-        <v>196300</v>
+        <v>209700</v>
       </c>
       <c r="H83" s="3">
-        <v>221000</v>
+        <v>192200</v>
       </c>
       <c r="I83" s="3">
-        <v>245700</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>216300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>240500</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>186300</v>
+        <v>244900</v>
       </c>
       <c r="E89" s="3">
-        <v>457800</v>
+        <v>183400</v>
       </c>
       <c r="F89" s="3">
-        <v>406200</v>
+        <v>448000</v>
       </c>
       <c r="G89" s="3">
-        <v>378100</v>
+        <v>397500</v>
       </c>
       <c r="H89" s="3">
-        <v>299600</v>
+        <v>370000</v>
       </c>
       <c r="I89" s="3">
-        <v>283900</v>
+        <v>293200</v>
       </c>
       <c r="J89" s="3">
+        <v>277800</v>
+      </c>
+      <c r="K89" s="3">
         <v>276000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-58300</v>
+        <v>-74700</v>
       </c>
       <c r="E91" s="3">
-        <v>-76300</v>
+        <v>-56000</v>
       </c>
       <c r="F91" s="3">
-        <v>-57200</v>
+        <v>-74700</v>
       </c>
       <c r="G91" s="3">
-        <v>-67300</v>
+        <v>-56000</v>
       </c>
       <c r="H91" s="3">
-        <v>-71800</v>
+        <v>-65900</v>
       </c>
       <c r="I91" s="3">
-        <v>-89800</v>
+        <v>-70300</v>
       </c>
       <c r="J91" s="3">
+        <v>-87800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-118900</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-169400</v>
+        <v>-171300</v>
       </c>
       <c r="E94" s="3">
-        <v>-131300</v>
+        <v>-165800</v>
       </c>
       <c r="F94" s="3">
-        <v>-887500</v>
+        <v>-128500</v>
       </c>
       <c r="G94" s="3">
-        <v>-122300</v>
+        <v>-868500</v>
       </c>
       <c r="H94" s="3">
-        <v>-94200</v>
+        <v>-119700</v>
       </c>
       <c r="I94" s="3">
-        <v>-159300</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-92200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-155900</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,22 +3058,23 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-28000</v>
+        <v>-27500</v>
       </c>
       <c r="F96" s="3">
-        <v>-19100</v>
+        <v>-27500</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-18700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -2887,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31400</v>
+        <v>-105400</v>
       </c>
       <c r="E100" s="3">
-        <v>-371400</v>
+        <v>-31800</v>
       </c>
       <c r="F100" s="3">
-        <v>552000</v>
+        <v>-363400</v>
       </c>
       <c r="G100" s="3">
-        <v>-248000</v>
+        <v>540200</v>
       </c>
       <c r="H100" s="3">
-        <v>-278300</v>
+        <v>-242700</v>
       </c>
       <c r="I100" s="3">
-        <v>-81900</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-272300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-43800</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
-        <v>29200</v>
+        <v>-42800</v>
       </c>
       <c r="F101" s="3">
-        <v>-6700</v>
+        <v>28500</v>
       </c>
       <c r="G101" s="3">
-        <v>15700</v>
+        <v>-6600</v>
       </c>
       <c r="H101" s="3">
-        <v>-28000</v>
+        <v>15400</v>
       </c>
       <c r="I101" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-27500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-58300</v>
+        <v>-30700</v>
       </c>
       <c r="E102" s="3">
-        <v>-15700</v>
+        <v>-57100</v>
       </c>
       <c r="F102" s="3">
-        <v>64000</v>
+        <v>-15400</v>
       </c>
       <c r="G102" s="3">
-        <v>23600</v>
+        <v>62600</v>
       </c>
       <c r="H102" s="3">
-        <v>-101000</v>
+        <v>23100</v>
       </c>
       <c r="I102" s="3">
-        <v>30300</v>
+        <v>-98800</v>
       </c>
       <c r="J102" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K102" s="3">
         <v>42600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
